--- a/ETU001619.xlsx
+++ b/ETU001619.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\e-clinique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\jioi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4822C1-2040-43AF-85A3-57FA4B6D7F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A2781-0B50-419B-AC1B-168F7D0E5B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{326CDC2B-B960-2746-B82E-7E70916B4721}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$4:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$4:$G$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Taches</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Avancement</t>
   </si>
   <si>
-    <t>Export PDF</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -84,51 +81,9 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Gestion de patient</t>
-  </si>
-  <si>
-    <t>CRUD patient</t>
-  </si>
-  <si>
-    <t>Gestion de actes</t>
-  </si>
-  <si>
-    <t>CRUD acte</t>
-  </si>
-  <si>
-    <t>Gestion de depense</t>
-  </si>
-  <si>
     <t>CRUD depense</t>
   </si>
   <si>
-    <t>Facture/DetailFacture</t>
-  </si>
-  <si>
-    <t>Insertion Facture/patient</t>
-  </si>
-  <si>
-    <t>Tableau de bord</t>
-  </si>
-  <si>
-    <t>Recette</t>
-  </si>
-  <si>
-    <t>Depense</t>
-  </si>
-  <si>
-    <t>Benifice</t>
-  </si>
-  <si>
-    <t>Gestion saisie depense</t>
-  </si>
-  <si>
-    <t>Saisie depense</t>
-  </si>
-  <si>
-    <t>Liste apres saisie</t>
-  </si>
-  <si>
     <t>Gestion import : CSV</t>
   </si>
   <si>
@@ -136,6 +91,78 @@
   </si>
   <si>
     <t>ETU: 1619</t>
+  </si>
+  <si>
+    <t>Gestion de pays</t>
+  </si>
+  <si>
+    <t>CRUD pays</t>
+  </si>
+  <si>
+    <t>Gestion de discipline</t>
+  </si>
+  <si>
+    <t>CRUD discipline</t>
+  </si>
+  <si>
+    <t>Gestion de sites</t>
+  </si>
+  <si>
+    <t>CRUD site</t>
+  </si>
+  <si>
+    <t>Gestion des depenses</t>
+  </si>
+  <si>
+    <t>Gestion des recettes</t>
+  </si>
+  <si>
+    <t>CRUD recette</t>
+  </si>
+  <si>
+    <t>Saisie de calendrier</t>
+  </si>
+  <si>
+    <t>Saisie des resultats</t>
+  </si>
+  <si>
+    <t>Creation et list de calendrier</t>
+  </si>
+  <si>
+    <t>Saisie resultats</t>
+  </si>
+  <si>
+    <t>Liste des resultats finaux</t>
+  </si>
+  <si>
+    <t>Gestion de nouvelles depenses</t>
+  </si>
+  <si>
+    <t>CRUD newdepenses</t>
+  </si>
+  <si>
+    <t>Gestion de nouvelles recettes</t>
+  </si>
+  <si>
+    <t>CRUD newrecette</t>
+  </si>
+  <si>
+    <t>Gestion de guest</t>
+  </si>
+  <si>
+    <t>Affichage de calendrier</t>
+  </si>
+  <si>
+    <t>Tableau des medailles</t>
+  </si>
+  <si>
+    <t>Tableau recettedepense</t>
+  </si>
+  <si>
+    <t>Medailles</t>
+  </si>
+  <si>
+    <t>Gestion de tableau</t>
   </si>
 </sst>
 </file>
@@ -187,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -210,12 +237,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,6 +263,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,15 +579,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62249D-93D1-B44E-A69D-FF5207EE2BE8}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.296875" customWidth="1"/>
+    <col min="1" max="1" width="25.8984375" customWidth="1"/>
     <col min="2" max="2" width="23.69921875" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.796875" customWidth="1"/>
@@ -559,12 +598,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -575,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -592,13 +631,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>15</v>
@@ -611,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G44" si="1">(E5/(E5+F5))</f>
+        <f t="shared" ref="G5:G53" si="1">(E5/(E5+F5))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>30</v>
@@ -642,13 +681,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -667,13 +706,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>15</v>
@@ -682,7 +721,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F41" si="4">D8-E8</f>
+        <f t="shared" ref="F8:F50" si="4">D8-E8</f>
         <v>5</v>
       </c>
       <c r="G8" s="5">
@@ -692,13 +731,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <v>30</v>
@@ -717,13 +756,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -742,13 +781,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3">
         <v>20</v>
@@ -767,19 +806,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="4"/>
@@ -792,19 +831,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
@@ -817,13 +856,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <v>20</v>
@@ -842,63 +881,63 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3">
         <v>20</v>
@@ -917,69 +956,69 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>30</v>
       </c>
       <c r="E19" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="4"/>
@@ -992,62 +1031,63 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F22" s="4">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3">
         <v>10</v>
@@ -1060,119 +1100,119 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23:G41" si="5">(E23/(E23+F23))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="E27" s="3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>20</v>
@@ -1185,116 +1225,116 @@
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="5"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -1310,262 +1350,481 @@
         <v>0</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E35" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E37" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>40</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D41" s="3">
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3">
+        <v>30</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3">
+        <v>35</v>
+      </c>
+      <c r="F44" s="4">
+        <v>15</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3">
+        <v>120</v>
+      </c>
+      <c r="E47" s="3">
+        <v>90</v>
+      </c>
+      <c r="F47" s="4">
+        <v>30</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" ref="G48:G50" si="5">(E48/(E48+F48))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3">
+        <v>120</v>
+      </c>
+      <c r="E49" s="3">
+        <v>60</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3">
         <v>20</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F41" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>SUM(D5:D43)</f>
-        <v>1075</v>
-      </c>
-      <c r="E44" s="3">
-        <f>SUM(E5:E43)</f>
-        <v>1030</v>
-      </c>
-      <c r="F44" s="3">
-        <f>SUM(F5:F43)</f>
-        <v>50</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="1"/>
-        <v>0.95370370370370372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
+        <f>SUM(D5:D52)</f>
+        <v>1290</v>
+      </c>
+      <c r="E53" s="3">
+        <f>SUM(E5:E52)</f>
+        <v>1125</v>
+      </c>
+      <c r="F53" s="3">
+        <f>SUM(F5:F52)</f>
+        <v>160</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="1"/>
+        <v>0.8754863813229572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
